--- a/resultados/subsets_escenarios2/subsets_Cali_Jamundi.xlsx
+++ b/resultados/subsets_escenarios2/subsets_Cali_Jamundi.xlsx
@@ -1,37 +1,511 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\cod\arc_analysis\resultados\subsets_escenarios2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84BA690-0F34-42BD-8D2E-5F4B69A8E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>dif_arc</t>
+  </si>
+  <si>
+    <t>mean_aok</t>
+  </si>
+  <si>
+    <t>mean_af</t>
+  </si>
+  <si>
+    <t>sd_aok</t>
+  </si>
+  <si>
+    <t>sd_af</t>
+  </si>
+  <si>
+    <t>n_aok</t>
+  </si>
+  <si>
+    <t>n_af</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan/Ibague-Armenia/Mariquita-Manizales/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan/Ibague-Armenia/Manizales-Pereira/La_Felisa-Cartago</t>
+  </si>
+  <si>
+    <t>Espinal-Neiva/Ibague-Armenia/Manizales-Pereira/La_Felisa-Cartago</t>
+  </si>
+  <si>
+    <t>Espinal-Neiva/Ibague-Armenia/Mariquita-Manizales/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan/Ibague-Espinal/Honda-Mariquita/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan/Cartago-Armenia/Madrid-Girardot/Honda-Mariquita/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Madrid-Girardot/Honda-Mariquita/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Barbosa_Ant-Puerto_Araujo/Honda-Villeta/La_Dorada-Honda/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan/Honda-Mariquita/Manizales-La_Felisa/La_Felisa-Cartago</t>
+  </si>
+  <si>
+    <t>Pamplona-Malaga/La_Dorada-Honda/Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Itagui-La_Felisa</t>
+  </si>
+  <si>
+    <t>Honda-Villeta</t>
+  </si>
+  <si>
+    <t>La_Dorada-Honda</t>
+  </si>
+  <si>
+    <t>Cartago-Buga</t>
+  </si>
+  <si>
+    <t>Bogota-Madrid</t>
+  </si>
+  <si>
+    <t>La_Felisa-Cartago</t>
+  </si>
+  <si>
+    <t>Mariquita-Manizales</t>
+  </si>
+  <si>
+    <t>Caloto-Popayan</t>
+  </si>
+  <si>
+    <t>Honda-Mariquita</t>
+  </si>
+  <si>
+    <t>Girardot-Espinal</t>
+  </si>
+  <si>
+    <t>Espinal-Neiva</t>
+  </si>
+  <si>
+    <t>Ibague-Armenia</t>
+  </si>
+  <si>
+    <t>Palmira-Caloto</t>
+  </si>
+  <si>
+    <t>Barbosa_Ant-Medellin</t>
+  </si>
+  <si>
+    <t>Villeta-Bogota</t>
+  </si>
+  <si>
+    <t>Jamundi-Caloto</t>
+  </si>
+  <si>
+    <t>Medellin-Rionegro</t>
+  </si>
+  <si>
+    <t>Madrid-Girardot</t>
+  </si>
+  <si>
+    <t>Villeta-Madrid</t>
+  </si>
+  <si>
+    <t>Ibague-Espinal</t>
+  </si>
+  <si>
+    <t>Manizales-Pereira</t>
+  </si>
+  <si>
+    <t>Puerto_Boyaca-La_Dorada</t>
+  </si>
+  <si>
+    <t>Barbosa_Ant-Puerto_Araujo</t>
+  </si>
+  <si>
+    <t>Buga-Palmira</t>
+  </si>
+  <si>
+    <t>Rionegro-Puerto_Boyaca</t>
+  </si>
+  <si>
+    <t>El_Burro-Agua_Clara_Cesar</t>
+  </si>
+  <si>
+    <t>Barbosa_Boy-Puerto_Araujo</t>
+  </si>
+  <si>
+    <t>Manizales-La_Felisa</t>
+  </si>
+  <si>
+    <t>Popayan-Neiva</t>
+  </si>
+  <si>
+    <t>Sonson-Narino</t>
+  </si>
+  <si>
+    <t>Narino-La_Dorada</t>
+  </si>
+  <si>
+    <t>Caucasia-Barbosa_Ant</t>
+  </si>
+  <si>
+    <t>Pereira-Cartago</t>
+  </si>
+  <si>
+    <t>Tunja-Barbosa_Boy</t>
+  </si>
+  <si>
+    <t>La_Fortuna-Puerto_Araujo</t>
+  </si>
+  <si>
+    <t>Tulua-Buga</t>
+  </si>
+  <si>
+    <t>Belen_Boy-Duitama</t>
+  </si>
+  <si>
+    <t>Puerto_Araujo-Puerto_Boyaca</t>
+  </si>
+  <si>
+    <t>Mariquita-Ibague</t>
+  </si>
+  <si>
+    <t>San_Roque-El_Burro</t>
+  </si>
+  <si>
+    <t>Buga-Cali</t>
+  </si>
+  <si>
+    <t>Zipaquira-Bogota</t>
+  </si>
+  <si>
+    <t>Duitama-Tunja</t>
+  </si>
+  <si>
+    <t>La_Paila-Tulua</t>
+  </si>
+  <si>
+    <t>San_Alberto-La_Fortuna</t>
+  </si>
+  <si>
+    <t>Planeta_Rica-Caucasia</t>
+  </si>
+  <si>
+    <t>Pereira-Armenia</t>
+  </si>
+  <si>
+    <t>Cartago-Armenia</t>
+  </si>
+  <si>
+    <t>Soata-Belen_Boy</t>
+  </si>
+  <si>
+    <t>Ricaurte-Girardot</t>
+  </si>
+  <si>
+    <t>Armenia-La_Paila</t>
+  </si>
+  <si>
+    <t>Palmira-Cali</t>
+  </si>
+  <si>
+    <t>S_Juan_Cesar-Valledupar</t>
+  </si>
+  <si>
+    <t>Monteria-Ye</t>
+  </si>
+  <si>
+    <t>Valledupar-La_Paz</t>
+  </si>
+  <si>
+    <t>Bosconia-La_Gloria</t>
+  </si>
+  <si>
+    <t>Agustin_C-Cuatrovientos</t>
+  </si>
+  <si>
+    <t>Chiquinquira-Zipaquira</t>
+  </si>
+  <si>
+    <t>Buga-Loboguerrero</t>
+  </si>
+  <si>
+    <t>Lorica-Monteria</t>
+  </si>
+  <si>
+    <t>Barranquilla-Carreto</t>
+  </si>
+  <si>
+    <t>Fusa-Ricaurte</t>
+  </si>
+  <si>
+    <t>Cartagena-Carreto</t>
+  </si>
+  <si>
+    <t>San_Alberto-Bucaramanga</t>
+  </si>
+  <si>
+    <t>Tunja-Chiquinquira</t>
+  </si>
+  <si>
+    <t>Tunja-Bogota</t>
+  </si>
+  <si>
+    <t>Sta_Ana-El_Banco</t>
+  </si>
+  <si>
+    <t>Altamira-Florencia</t>
+  </si>
+  <si>
+    <t>El_Banco-El_Burro</t>
+  </si>
+  <si>
+    <t>Agua_Clara_Cesar-San_Alberto</t>
+  </si>
+  <si>
+    <t>Bucaramanga-San_Gil</t>
+  </si>
+  <si>
+    <t>Loboguerrero-Buenaventura</t>
+  </si>
+  <si>
+    <t>La_Gloria-Carmen_de_Bolivar</t>
+  </si>
+  <si>
+    <t>Cucuta-Pamplona</t>
+  </si>
+  <si>
+    <t>Belen_Boy-Hato_Corozal</t>
+  </si>
+  <si>
+    <t>Cartagena-Lorica</t>
+  </si>
+  <si>
+    <t>Cartago-Zarzal</t>
+  </si>
+  <si>
+    <t>Cuatrovientos-El_Banco</t>
+  </si>
+  <si>
+    <t>Tame-Hato_Corozal</t>
+  </si>
+  <si>
+    <t>Sincelejo-Ye</t>
+  </si>
+  <si>
+    <t>Tame-Arauca</t>
+  </si>
+  <si>
+    <t>Hato_Corozal-Yopal</t>
+  </si>
+  <si>
+    <t>Loboguerrero-Cali</t>
+  </si>
+  <si>
+    <t>Popayan-Pasto</t>
+  </si>
+  <si>
+    <t>Medellin-Sonson</t>
+  </si>
+  <si>
+    <t>Zarzal-La_Paila</t>
+  </si>
+  <si>
+    <t>Pamplona-Malaga</t>
+  </si>
+  <si>
+    <t>Medellin-Sta_Fe_A</t>
+  </si>
+  <si>
+    <t>Ocana-Cucuta</t>
+  </si>
+  <si>
+    <t>Bogota-Fusa</t>
+  </si>
+  <si>
+    <t>Pinchote-Barbosa_Boy</t>
+  </si>
+  <si>
+    <t>Santa_Marta-Barranquilla</t>
+  </si>
+  <si>
+    <t>Bucaramanga-La_Fortuna</t>
+  </si>
+  <si>
+    <t>Tunja-Agua_Clara_Casa</t>
+  </si>
+  <si>
+    <t>Altamira-Mocoa</t>
+  </si>
+  <si>
+    <t>Mocoa-Pasto</t>
+  </si>
+  <si>
+    <t>Carmen_de_Bolivar-Puerta_Hierro</t>
+  </si>
+  <si>
+    <t>La_Paz-Agustin_C</t>
+  </si>
+  <si>
+    <t>Agua_Clara_Casa-Villavicencio</t>
+  </si>
+  <si>
+    <t>Medellin-Bolombolo</t>
+  </si>
+  <si>
+    <t>Malaga-Soata</t>
+  </si>
+  <si>
+    <t>Barranquilla-Cartagena</t>
+  </si>
+  <si>
+    <t>La_Gloria-Sta_Ana</t>
+  </si>
+  <si>
+    <t>Maicao-Buenavista</t>
+  </si>
+  <si>
+    <t>Barrancabermeja-La_Fortuna</t>
+  </si>
+  <si>
+    <t>Bogota-Villavicencio</t>
+  </si>
+  <si>
+    <t>Buenavista-Riohacha</t>
+  </si>
+  <si>
+    <t>San_Gil-Pinchote</t>
+  </si>
+  <si>
+    <t>Neiva-Florencia</t>
+  </si>
+  <si>
+    <t>Puerta_Hierro-Sincelejo</t>
+  </si>
+  <si>
+    <t>Villavicencio-Granada</t>
+  </si>
+  <si>
+    <t>Carreto-Carmen_de_Bolivar</t>
+  </si>
+  <si>
+    <t>Monteria-Planeta_Rica</t>
+  </si>
+  <si>
+    <t>Aguazul-Agua_Clara_Casa</t>
+  </si>
+  <si>
+    <t>Sta_Fe_A-Turbo</t>
+  </si>
+  <si>
+    <t>Buenavista-S_Juan_Cesar</t>
+  </si>
+  <si>
+    <t>Neiva-Altamira</t>
+  </si>
+  <si>
+    <t>Riohacha-Santa_Marta</t>
+  </si>
+  <si>
+    <t>Bucaramanga-Malaga</t>
+  </si>
+  <si>
+    <t>Duitama-Aguazul</t>
+  </si>
+  <si>
+    <t>Pamplona-Tame</t>
+  </si>
+  <si>
+    <t>Agua_Clara_Cesar-Ocana</t>
+  </si>
+  <si>
+    <t>Agustin_C-San_Roque</t>
+  </si>
+  <si>
+    <t>Yopal-Aguazul</t>
+  </si>
+  <si>
+    <t>Bolombolo-Quibdo</t>
+  </si>
+  <si>
+    <t>Ye-Planeta_Rica</t>
+  </si>
+  <si>
+    <t>S_Juan_Cesar-La_Paz</t>
+  </si>
+  <si>
+    <t>Sta_Fe_A-Bolombolo</t>
+  </si>
+  <si>
+    <t>Sincelejo-Lorica</t>
+  </si>
+  <si>
+    <t>Pamplona-Bucaramanga</t>
+  </si>
+  <si>
+    <t>Valledupar-Bosconia</t>
+  </si>
+  <si>
+    <t>San_Gil-Soata</t>
+  </si>
+  <si>
+    <t>Bosconia-Cuatrovientos</t>
+  </si>
+  <si>
+    <t>Santa_Marta-Bosconia</t>
+  </si>
+  <si>
+    <t>Cuatrovientos-San_Roque</t>
+  </si>
+  <si>
+    <t>Puerta_Hierro-Sta_Ana</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +520,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,4146 +844,3839 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>arc</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dif_arc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mean_aok</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mean_af</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sd_aok</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sd_af</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>n_aok</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_af</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan/Ibague-Armenia/Mariquita-Manizales/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>8374418</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>16173114</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>24547532</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10414441</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>6730</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>270</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan/Ibague-Armenia/Manizales-Pereira/La_Felisa-Cartago</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>8368201</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>16179331</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>24547532</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10413073</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>6735</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>265</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Espinal-Neiva/Ibague-Armenia/Manizales-Pereira/La_Felisa-Cartago</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>8255432</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>16292100</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>24547532</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>10387580</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>6827</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>173</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Espinal-Neiva/Ibague-Armenia/Mariquita-Manizales/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>8251806</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16295726</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>24547532</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10386739</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>6830</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>170</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan/Ibague-Espinal/Honda-Mariquita/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>8188266</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>16359266</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>24547532</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>10371784</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>6883</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>117</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan/Cartago-Armenia/Madrid-Girardot/Honda-Mariquita/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>8112831</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16434701</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24547532</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10353495</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>6947</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Madrid-Girardot/Honda-Mariquita/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>7434636</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>16101029</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23535665</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>10431169</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4486428</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>6628</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>372</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Barbosa_Ant-Puerto_Araujo/Honda-Villeta/La_Dorada-Honda/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>7361738</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16435130</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23796867</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10353216</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3984490</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>6942</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>58</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan/Honda-Mariquita/Manizales-La_Felisa/La_Felisa-Cartago</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>6802372</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16357164</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>23159536</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>10372622</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5228625</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>6857</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>143</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pamplona-Malaga/La_Dorada-Honda/Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>6753731</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>16224048</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>22977779</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>10401375</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5645881</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6718</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>282</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Itagui-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>5014323</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14213893</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>19228217</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>10612937</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>9289075</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3814</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>3186</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honda-Villeta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>3506028</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15977736</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>19483763</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>10451469</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>9101001</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>5965</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1035</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>La_Dorada-Honda</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>3007182</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>15816074</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>18823256</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>10496866</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>9410915</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>5417</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1583</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cartago-Buga</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>2891340</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>16073991</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>18965332</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>10437788</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>9361234</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>5978</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1022</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bogota-Madrid</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <v>2887109</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>15813119</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>18700228</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>10580172</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>9174869</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>5344</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1656</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>La_Felisa-Cartago</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>2856196</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>15172076</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>18028272</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>10538011</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>9883024</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3755</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>3245</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mariquita-Manizales</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>2750509</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>15259970</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>18010478</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>10610798</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>9783458</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3854</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>3146</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Caloto-Popayan</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>2643403</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>15482571</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>18125974</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>10586769</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>9705906</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4316</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>2684</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Honda-Mariquita</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
         <v>2599765</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>15675344</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18275109</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>10525950</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>9683044</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4790</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>2210</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Girardot-Espinal</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
         <v>2461889</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>15733645</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>18195534</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>10522555</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>9701616</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>4832</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>2168</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Espinal-Neiva</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
         <v>2446484</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>15921553</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>18368037</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>10490908</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>9588206</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5356</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1644</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ibague-Armenia</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>2332197</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>15422650</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>17754847</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>10576568</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>9904335</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3778</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>3222</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Palmira-Caloto</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
         <v>2144849</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>15845318</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>17990168</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>10579469</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>9596159</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4876</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>2124</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Barbosa_Ant-Medellin</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>2048075</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>16018925</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>18067000</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>10523516</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>9535846</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>5369</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1631</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Villeta-Bogota</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>2033480</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>15723404</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>17756885</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>10497773</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>9944264</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>4340</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>2660</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Jamundi-Caloto</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>1944451</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>15750569</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>17695020</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>10635554</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>9721980</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>4316</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>2684</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Medellin-Rionegro</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
         <v>1813098</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15931476</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>17744575</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>10458963</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>9952889</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4820</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>2180</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Madrid-Girardot</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
         <v>1800554</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>15809859</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>17610412</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>10552347</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>9879613</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>4332</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>2668</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Villeta-Madrid</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
         <v>1782948</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>15823191</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>17606140</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>10561445</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>9859087</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>4358</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>2642</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ibague-Espinal</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
         <v>1769997</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>15947681</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>17717677</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>10519936</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>9811803</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4831</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>2169</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Manizales-Pereira</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
         <v>1766263</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>15698533</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>17464796</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>10605049</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>9918608</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3839</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>3161</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Puerto_Boyaca-La_Dorada</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
         <v>1721715</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>16093492</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>17815207</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>10430584</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>9915594</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>5363</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>1637</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Barbosa_Ant-Puerto_Araujo</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
         <v>1665878</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>15733155</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>17399033</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>10561281</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>9992779</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3794</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>3206</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Buga-Palmira</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
         <v>1646519</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>16273141</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>17919660</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>10392093</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>9869042</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>6052</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>948</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Rionegro-Puerto_Boyaca</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
         <v>1546622</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>15906643</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>17453265</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>10457200</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>10068689</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>4332</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2668</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>El_Burro-Agua_Clara_Cesar</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
         <v>1463507</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>16157012</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>17620518</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>10504744</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>9680951</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>5378</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>1622</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Barbosa_Boy-Puerto_Araujo</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
         <v>1460556</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>15707636</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>17168191</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>10492933</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>10156201</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3221</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>3779</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Manizales-La_Felisa</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
         <v>1342270</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>15977052</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>17319322</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>10464952</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>10079198</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>4293</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>2707</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Popayan-Neiva</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
         <v>1321897</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>16088983</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>17410880</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>10447846</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>10027298</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>4844</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>2156</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Sonson-Narino</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
         <v>1240760</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>16036869</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>17277628</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>10460474</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>10078672</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>4409</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>2591</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Narino-La_Dorada</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>1219145</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>16034767</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>17253913</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>10439411</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>10124178</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>4351</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>2649</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Caucasia-Barbosa_Ant</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>1184243</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>16138147</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>17322390</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>10578052</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>9711775</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>4884</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>2116</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pereira-Cartago</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>1129636</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>16064606</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>17194242</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>10558077</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>9932529</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>4326</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>2674</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Tunja-Barbosa_Boy</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
         <v>1017175</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>16030115</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>17047290</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>10467855</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>10155096</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>3793</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>3207</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>La_Fortuna-Puerto_Araujo</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
         <v>1016830</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>16109005</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>17125835</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>10508058</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>10023812</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4335</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>2665</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tulua-Buga</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
         <v>992783</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>16194604</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>17187388</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>10429762</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>10091125</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>4874</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>2126</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Belen_Boy-Duitama</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
         <v>986629</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>16180405</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>17167035</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>10452447</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>10058192</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>4760</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>2240</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Puerto_Araujo-Puerto_Boyaca</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
         <v>957863</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>16126528</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>17084392</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>10461330</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>10111241</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4299</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>2701</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mariquita-Ibague</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
         <v>954591</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>16269752</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>17224343</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>10407571</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>10077265</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>5340</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>1660</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>San_Roque-El_Burro</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
         <v>906697</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>16367635</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>17274332</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>10387297</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>10000299</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>6008</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>992</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Buga-Cali</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
         <v>905756</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>16148834</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>17054590</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>10435804</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>10154336</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>4316</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>2684</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Zipaquira-Bogota</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
         <v>876551</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>16294520</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>17171071</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>10403217</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>10088093</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>5390</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>1610</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Duitama-Tunja</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
         <v>855719</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>16370825</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>17226544</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>10378217</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>10070599</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>5975</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>1025</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>La_Paila-Tulua</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
         <v>855605</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>16231256</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>17086861</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>10433710</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>10096851</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>4833</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>2167</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>San_Alberto-La_Fortuna</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
         <v>826238</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>16177671</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>17003909</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>10451674</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>10133890</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>4302</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>2698</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Planeta_Rica-Caucasia</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
         <v>764213</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>16378220</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>17142433</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>10427980</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>9806179</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>5920</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>1080</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Pereira-Armenia</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
         <v>746997</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>16213976</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>16960972</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>10503578</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>10042463</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>4356</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>2644</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Cartago-Armenia</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
         <v>703877</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>16227246</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>16931123</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>10421313</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>10187216</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>4326</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>2674</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Soata-Belen_Boy</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
         <v>691245</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>16288358</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>16979603</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>10407490</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>10158608</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>4896</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>2104</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Ricaurte-Girardot</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
         <v>655210</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>16242654</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>16897864</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>10423787</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>10188098</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4292</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>2708</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Armenia-La_Paila</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
         <v>629227</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>16252257</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>16881483</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>10383960</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>10253588</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>4287</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>2713</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Palmira-Cali</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
         <v>625271</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>16404748</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>17030019</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>10386773</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>10032896</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>5977</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>1023</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>S_Juan_Cesar-Valledupar</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
         <v>621963</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>16399012</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>17020975</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>10362260</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>10191009</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>5907</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>1093</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Monteria-Ye</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
         <v>620276</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>16401934</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>17022209</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>10360919</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>10194204</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>5937</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>1063</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Valledupar-La_Paz</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
         <v>609351</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>16408032</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>17017383</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>10353701</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>10230298</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>5988</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>1012</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Bosconia-La_Gloria</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
         <v>577292</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>16410935</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>16988227</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>10365040</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>10167630</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>5967</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>1033</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Agustin_C-Cuatrovientos</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
         <v>567421</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>16412311</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>16979732</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>10343775</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>10292466</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>5966</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>1034</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Chiquinquira-Zipaquira</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
         <v>515718</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>16377438</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>16893156</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>10373326</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>10209679</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>5389</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>1611</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Buga-Loboguerrero</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
         <v>510127</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>16301550</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>16811677</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>10416704</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>10201645</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>4330</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>2670</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Lorica-Monteria</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
         <v>506858</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>16417202</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>16924060</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>10373292</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>10134942</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>5910</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>1090</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Barranquilla-Carreto</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
         <v>499991</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>16419771</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>16919762</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>10357840</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>10218006</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>5931</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>1069</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Fusa-Ricaurte</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
         <v>486656</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>16311823</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>16798479</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>10393517</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>10239548</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>4349</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>2651</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Cartagena-Carreto</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
         <v>469865</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>16423701</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>16893565</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>10361990</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>10197333</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>5921</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>1079</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>San_Alberto-Bucaramanga</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
         <v>462672</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>16393612</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>16856284</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>10401584</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>10103998</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>5449</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>1551</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Tunja-Chiquinquira</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
         <v>457836</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>16426928</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>16884765</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>10363041</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>10188650</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>5942</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>1058</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Tunja-Bogota</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
         <v>447892</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>16424272</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>16872165</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>10355004</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>10241417</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>5877</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>1123</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Sta_Ana-El_Banco</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
         <v>444977</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>16426901</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>16871878</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>10373555</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>10135720</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>5911</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>1089</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Altamira-Florencia</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
         <v>444230</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>16326939</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>16771169</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>10396408</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>10236828</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>4334</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>2666</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>El_Banco-El_Burro</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
         <v>413543</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>16435395</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>16848938</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>10370378</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>10141867</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>5972</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>1028</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Agua_Clara_Cesar-San_Alberto</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
         <v>410499</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>16366409</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>16776908</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>10444529</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>10098419</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>4788</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>2212</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Bucaramanga-San_Gil</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
         <v>404441</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>16369768</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>16774209</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>10388172</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>10221775</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>4813</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>2187</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Loboguerrero-Buenaventura</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
         <v>398278</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>16279748</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>16678026</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>10437022</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>10250805</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>3197</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>3803</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>La_Gloria-Carmen_de_Bolivar</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
         <v>392882</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>16440113</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>16832995</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>10365972</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>10162871</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>6002</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>998</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Cucuta-Pamplona</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
         <v>373830</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>16355513</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>16729344</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>10439255</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>10164018</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>4367</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>2633</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Belen_Boy-Hato_Corozal</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
         <v>372190</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>16326727</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>16698917</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>10404632</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>10254368</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>3814</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>3186</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Cartagena-Lorica</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
         <v>368321</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>16441405</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>16809726</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>10372578</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>10133054</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>5960</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>1040</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Cartago-Zarzal</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
         <v>354602</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>16413302</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>16767904</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>10369107</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>10231300</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>5365</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>1635</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Cuatrovientos-El_Banco</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
         <v>351936</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>16442834</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>16794770</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>10354441</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>10241397</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>5940</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>1060</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Tame-Hato_Corozal</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
         <v>343603</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>16366000</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>16709603</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>10399074</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>10233894</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>4349</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>2651</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Sincelejo-Ye</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
         <v>342479</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>16443189</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>16785668</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>10358429</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>10221821</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>5918</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>1082</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Tame-Arauca</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
         <v>325999</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>16371595</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>16697595</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>10369484</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>10284122</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>4326</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>2674</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Hato_Corozal-Yopal</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
         <v>325112</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>16346622</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>16671734</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>10404035</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>10257489</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>3781</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>3219</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Loboguerrero-Cali</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
         <v>315703</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>16352076</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>16667779</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>10382802</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>10282104</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>3806</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>3194</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Popayan-Pasto</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
         <v>308924</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>16378294</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>16687218</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>10404745</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>10226403</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>4330</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>2670</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Medellin-Sonson</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
         <v>296083</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>16401761</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>16697844</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>10349866</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>10310236</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>4769</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>2231</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Zarzal-La_Paila</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
         <v>281519</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>16433710</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>16715229</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>10362526</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>10249217</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>5448</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>1552</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Pamplona-Malaga</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
         <v>281295</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>16390440</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>16671735</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>10373857</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>10276202</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>4370</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>2630</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Medellin-Sta_Fe_A</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
         <v>275977</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>16369375</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>16645352</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>10372906</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>10295131</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>3785</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>3215</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Ocana-Cucuta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
         <v>245175</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>16439667</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>16684841</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>10370061</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>10228605</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>5388</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>1612</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bogota-Fusa</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
         <v>240084</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>16421872</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>16661956</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>10380035</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>10242121</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>4835</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>2165</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Pinchote-Barbosa_Boy</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
         <v>233478</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>16371283</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>16604761</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>10397668</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>10284889</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>3257</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>3743</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Santa_Marta-Barranquilla</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
         <v>217782</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>16464051</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>16681833</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>10358499</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>10217716</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>5969</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>1031</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Bucaramanga-La_Fortuna</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
         <v>202503</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>16402339</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>16604842</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>10395936</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>10269737</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>3758</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>3242</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Tunja-Agua_Clara_Casa</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
         <v>186726</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>16394281</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>16581007</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>10367370</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>10313007</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>3182</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>3818</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Altamira-Mocoa</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
         <v>167746</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>16431089</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>16598835</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>10362929</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>10298118</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>4286</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>2714</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Mocoa-Pasto</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
         <v>167255</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>16434959</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>16602215</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>10352795</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>10311902</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>4440</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>2560</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Carmen_de_Bolivar-Puerta_Hierro</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
         <v>159789</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>16471725</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>16631514</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>10353729</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>10250377</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>5931</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>1069</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>La_Paz-Agustin_C</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
         <v>151999</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>16472849</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>16624849</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>10343952</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>10305207</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>5928</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>1072</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Agua_Clara_Casa-Villavicencio</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
         <v>146827</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>16450590</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>16597416</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>10367266</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>10272439</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>4829</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>2171</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Medellin-Bolombolo</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
         <v>144942</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>16429992</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>16574934</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>10375774</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>10292632</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>3806</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>3194</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Malaga-Soata</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
         <v>127665</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>16465925</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>16593590</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>10348182</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>10305201</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>5344</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>1656</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Barranquilla-Cartagena</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
         <v>112140</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>16479033</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>16591174</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>10363378</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>10196357</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>5933</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>1067</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>La_Gloria-Sta_Ana</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
         <v>111497</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>16479657</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>16591155</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>10325291</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>10411676</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>5966</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>1034</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Maicao-Buenavista</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
         <v>105807</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>16479999</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>16585806</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>10362377</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>10202071</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>5933</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>1067</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Barrancabermeja-La_Fortuna</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
         <v>90941</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>16474678</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>16565619</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>10343479</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>10320656</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>5349</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>1651</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Bogota-Villavicencio</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
         <v>84537</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>16450863</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>16535401</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>10391211</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>10291770</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>3252</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>3748</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Buenavista-Riohacha</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
         <v>64766</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>16486236</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>16551002</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>10328658</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>10390633</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>5931</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>1069</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>San_Gil-Pinchote</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
         <v>54469</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>16466854</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>16521323</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>10372664</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>10308326</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>3238</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>3762</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Neiva-Florencia</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
         <v>30013</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>16484495</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>16514507</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>10346744</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>10324586</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>4287</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>2713</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Puerta_Hierro-Sincelejo</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
         <v>26043</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>16492139</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>16518182</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>10348683</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>10279831</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>5928</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>1072</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Villavicencio-Granada</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
         <v>23164</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>16487225</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>16510389</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>10350114</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>10318995</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>4310</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>2690</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Carreto-Carmen_de_Bolivar</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
         <v>16122</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>16493764</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>16509886</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>10343262</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>10308479</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>5974</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>1026</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Monteria-Planeta_Rica</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
         <v>14058</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>16494022</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>16508080</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>10355033</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>10241880</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>5952</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>1048</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Aguazul-Agua_Clara_Casa</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
         <v>-3256</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>16497873</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>16494617</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>10326518</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>10348239</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>3246</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>3754</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Sta_Fe_A-Turbo</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
         <v>-5894</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>16499352</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>16493458</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>10335249</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>10340591</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>3170</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>3830</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Buenavista-S_Juan_Cesar</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
         <v>-29403</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>16500428</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>16471025</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>10342410</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>10313371</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>5976</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>1024</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Neiva-Altamira</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
         <v>-29754</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>16500620</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>16470865</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>10350207</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>10270207</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>5943</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>1057</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Riohacha-Santa_Marta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
         <v>-30189</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>16500582</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>16470393</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>10353107</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>10251440</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>5967</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>1033</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Bucaramanga-Malaga</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
         <v>-37299</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>16510210</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>16472911</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>10307760</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>10388071</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>4357</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>2643</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Duitama-Aguazul</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
         <v>-51173</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>16527854</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>16476681</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>10327837</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>10344454</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>2660</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>4340</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Pamplona-Tame</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
         <v>-57019</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>16522201</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>16465182</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>10326226</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>10352248</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>3799</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>3201</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Agua_Clara_Cesar-Ocana</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
         <v>-71577</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>16512406</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>16440828</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>10347706</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>10305529</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>5408</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>1592</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Agustin_C-San_Roque</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
         <v>-89846</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>16509488</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>16419642</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>10335389</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>10353759</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>5959</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>1041</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Yopal-Aguazul</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
         <v>-104945</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>16544956</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>16440012</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>10309373</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>10370887</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>3743</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>3257</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Bolombolo-Quibdo</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
         <v>-175670</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>16604741</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>16429071</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>10335948</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>10338976</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>2672</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>4328</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Ye-Planeta_Rica</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
         <v>-192753</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>16526141</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>16333388</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>10334899</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>10354388</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>5910</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>1090</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>S_Juan_Cesar-La_Paz</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
         <v>-195816</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>16524436</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>16328620</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>10329034</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>10390504</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>5988</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>1012</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Sta_Fe_A-Bolombolo</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
         <v>-235077</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>16602852</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>16367775</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>10313379</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>10366457</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>3822</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>3178</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Sincelejo-Lorica</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
         <v>-238124</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>16532050</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>16293926</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>10333419</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>10362567</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>5944</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>1056</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Pamplona-Bucaramanga</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
         <v>-275693</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>16556858</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>16281165</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>10328527</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>10369382</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>5458</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>1542</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Valledupar-Bosconia</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
         <v>-297108</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>16539632</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>16242524</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>10334910</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>10353535</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>5975</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>1025</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>San_Gil-Soata</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
         <v>-338335</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>16623631</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>16285296</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>10321720</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>10361878</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>4362</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>2638</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Bosconia-Cuatrovientos</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
         <v>-352618</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>16547508</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>16194890</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>10312050</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>10484949</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>5980</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>1020</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Santa_Marta-Bosconia</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
         <v>-386469</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>16586395</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>16199926</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>10321363</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>10387630</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>5365</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>1635</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Cuatrovientos-San_Roque</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
         <v>-580703</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>16585804</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>16005101</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>10308625</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>10484894</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>5919</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>1081</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Puerta_Hierro-Sta_Ana</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
         <v>-622845</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>16587240</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>15964395</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>10322872</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>10411122</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>5976</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>1024</v>
       </c>
     </row>
